--- a/ResumeUploadTool/Data/DataSheet.xlsx
+++ b/ResumeUploadTool/Data/DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19410" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -25,7 +26,7 @@
     <t>vmvijay09@gmail.com</t>
   </si>
   <si>
-    <t>jobs@123</t>
+    <t>Varuna123$</t>
   </si>
 </sst>
 </file>
@@ -134,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,7 +382,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +410,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="jobs@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
